--- a/nbs/files/lut/dbo_nuclide.xlsx
+++ b/nbs/files/lut/dbo_nuclide.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iaeacloud-my.sharepoint.com/personal/c_omata_iaea_org/Documents/Desktop/dbo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7156ED16-9DA3-4746-8817-0046D74DDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F122F4-37E7-419D-A9CD-F520E8375053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-26430" yWindow="2130" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -233,7 +233,7 @@
     <t>106mAg</t>
   </si>
   <si>
-    <t>mag106</t>
+    <t>ag106m</t>
   </si>
   <si>
     <t>108Ag</t>
@@ -248,13 +248,13 @@
     <t>108mAg</t>
   </si>
   <si>
-    <t>mag108</t>
+    <t>ag108m</t>
   </si>
   <si>
     <t>110mAg</t>
   </si>
   <si>
-    <t>mag110</t>
+    <t>ag110m</t>
   </si>
   <si>
     <t>ANTIMONY</t>
@@ -278,7 +278,7 @@
     <t>129mTe</t>
   </si>
   <si>
-    <t>mte129</t>
+    <t>te129m</t>
   </si>
   <si>
     <t>IODINE</t>
@@ -725,7 +725,7 @@
     <t>192Ir</t>
   </si>
   <si>
-    <t>lr192</t>
+    <t>ir192</t>
   </si>
   <si>
     <t>238,240Pu</t>
@@ -764,7 +764,7 @@
     <t>117mSn</t>
   </si>
   <si>
-    <t>msn117</t>
+    <t>sn117m</t>
   </si>
   <si>
     <t>THALLIUM</t>
@@ -773,7 +773,7 @@
     <t>208Tl</t>
   </si>
   <si>
-    <t>ti208</t>
+    <t>tl208</t>
   </si>
   <si>
     <t>MOLYBDENUM</t>
@@ -788,7 +788,7 @@
     <t>99mTc</t>
   </si>
   <si>
-    <t>mtc99</t>
+    <t>tc99m</t>
   </si>
   <si>
     <t>105Ru</t>
@@ -884,13 +884,13 @@
     <t>116mIn</t>
   </si>
   <si>
-    <t>min116</t>
+    <t>in116m</t>
   </si>
   <si>
     <t>123mTe</t>
   </si>
   <si>
-    <t>mte123</t>
+    <t>te123m</t>
   </si>
   <si>
     <t>127Sb</t>
@@ -938,7 +938,7 @@
     <t>234mPa</t>
   </si>
   <si>
-    <t>mpa234</t>
+    <t>pa234m</t>
   </si>
   <si>
     <t>243Am</t>
@@ -998,7 +998,7 @@
     <t>137mBa</t>
   </si>
   <si>
-    <t>mba137</t>
+    <t>ba137m</t>
   </si>
   <si>
     <t>232U</t>
@@ -1907,8 +1907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5415,15 +5415,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -5555,14 +5546,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}"/>
 </file>
--- a/nbs/files/lut/dbo_nuclide.xlsx
+++ b/nbs/files/lut/dbo_nuclide.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iaeacloud-my.sharepoint.com/personal/c_omata_iaea_org/Documents/Desktop/dbo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F122F4-37E7-419D-A9CD-F520E8375053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C668B-9828-3B4A-A76A-9827B92B0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26430" yWindow="2130" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-05-14 dbo_nuclide" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020-05-14 dbo_nuclide'!$A$1:$G$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2020-05-14 dbo_nuclide'!$A$1:$G$134</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="344">
   <si>
     <t>nuclide_id</t>
   </si>
@@ -1065,13 +1065,16 @@
   </si>
   <si>
     <t>pu241_pu239_ratio</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1609,7 +1612,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1897,7 +1900,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1905,23 +1908,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1947,214 +1950,196 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>12.35</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>53.3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>5730</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6">
-        <v>1260000000</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7">
+        <v>1260000000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>51</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>27.7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8">
-        <v>312.2</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F9">
-        <v>271.60000000000002</v>
+        <v>312.2</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -2163,24 +2148,24 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10">
-        <v>70.78</v>
+        <v>271.60000000000002</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -2189,76 +2174,76 @@
         <v>27</v>
       </c>
       <c r="D11">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11">
+        <v>70.78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
+      <c r="D12">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>5.27</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>12</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>30</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>38</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>244</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13">
-        <v>38</v>
-      </c>
-      <c r="D13">
-        <v>89</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13">
-        <v>50.5</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
         <v>40</v>
@@ -2267,128 +2252,128 @@
         <v>38</v>
       </c>
       <c r="D14">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>50.5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>38</v>
+      </c>
+      <c r="D15">
         <v>90</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>43</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>28.8</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>40</v>
-      </c>
-      <c r="D15">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16">
-        <v>41</v>
       </c>
       <c r="D16">
         <v>95</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>34.97</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>41</v>
+      </c>
+      <c r="D17">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17">
+        <v>34.97</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>99</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>214000</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>12</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18">
-        <v>44</v>
-      </c>
-      <c r="D18">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18">
-        <v>39.25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -2397,76 +2382,76 @@
         <v>44</v>
       </c>
       <c r="D19">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19">
-        <v>366.5</v>
+        <v>39.25</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>106</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F20">
-        <v>29.8</v>
+        <v>366.5</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C21">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D21">
         <v>106</v>
       </c>
       <c r="E21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>8.4600000000000009</v>
+        <v>29.8</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" t="s">
         <v>63</v>
@@ -2475,24 +2460,24 @@
         <v>47</v>
       </c>
       <c r="D22">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22">
-        <v>2.37</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="G22" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
         <v>63</v>
@@ -2504,21 +2489,21 @@
         <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F23">
-        <v>127</v>
+        <v>2.37</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
         <v>63</v>
@@ -2527,50 +2512,50 @@
         <v>47</v>
       </c>
       <c r="D24">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24">
+        <v>127</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25">
+        <v>47</v>
+      </c>
+      <c r="D25">
         <v>110</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>71</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>252</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25">
-        <v>51</v>
-      </c>
-      <c r="D25">
-        <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25">
-        <v>60.2</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" t="s">
         <v>73</v>
@@ -2579,76 +2564,76 @@
         <v>51</v>
       </c>
       <c r="D26">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F26">
-        <v>2.71</v>
+        <v>60.2</v>
       </c>
       <c r="G26" t="s">
         <v>16</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D27">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F27">
-        <v>33.520000000000003</v>
+        <v>2.71</v>
       </c>
       <c r="G27" t="s">
         <v>16</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C28">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D28">
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F28">
-        <v>15700000</v>
+        <v>33.520000000000003</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>81</v>
@@ -2657,50 +2642,50 @@
         <v>53</v>
       </c>
       <c r="D29">
+        <v>129</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29">
+        <v>15700000</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30">
+        <v>53</v>
+      </c>
+      <c r="D30">
         <v>131</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>84</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <v>8.0399999999999991</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" t="s">
         <v>16</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30">
-        <v>55</v>
-      </c>
-      <c r="D30">
-        <v>127</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30">
-        <v>6.25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>88</v>
-      </c>
-      <c r="H30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>86</v>
@@ -2709,24 +2694,24 @@
         <v>55</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F31">
-        <v>2.0699999999999998</v>
+        <v>6.25</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>86</v>
@@ -2735,102 +2720,102 @@
         <v>55</v>
       </c>
       <c r="D32">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F32">
-        <v>30.17</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="G32" t="s">
         <v>12</v>
       </c>
       <c r="H32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
+        <v>137</v>
+      </c>
+      <c r="E33" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>30.17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>94</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>56</v>
-      </c>
-      <c r="D33">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33">
-        <v>12.79</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34">
-        <v>57</v>
       </c>
       <c r="D34">
         <v>140</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F34">
-        <v>1.68</v>
+        <v>12.79</v>
       </c>
       <c r="G34" t="s">
         <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C35">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F35">
-        <v>32.549999999999997</v>
+        <v>1.68</v>
       </c>
       <c r="G35" t="s">
         <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>100</v>
@@ -2839,76 +2824,76 @@
         <v>58</v>
       </c>
       <c r="D36">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>284.5</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="G36" t="s">
         <v>16</v>
       </c>
       <c r="H36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>144</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F37">
+        <v>284.5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>105</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>61</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>147</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>106</v>
       </c>
-      <c r="F37">
+      <c r="F38">
         <v>2.62</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38">
-        <v>63</v>
-      </c>
-      <c r="D38">
-        <v>154</v>
-      </c>
-      <c r="E38" t="s">
-        <v>109</v>
-      </c>
-      <c r="F38">
-        <v>8.5</v>
       </c>
       <c r="G38" t="s">
         <v>12</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>108</v>
@@ -2917,50 +2902,50 @@
         <v>63</v>
       </c>
       <c r="D39">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F39">
-        <v>4.96</v>
+        <v>8.5</v>
       </c>
       <c r="G39" t="s">
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="D40">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F40">
-        <v>22.36</v>
+        <v>4.96</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
       </c>
       <c r="H40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>113</v>
@@ -2969,24 +2954,24 @@
         <v>82</v>
       </c>
       <c r="D41">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F41">
-        <v>10.64</v>
+        <v>22.36</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="H41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>113</v>
@@ -2995,50 +2980,50 @@
         <v>82</v>
       </c>
       <c r="D42">
+        <v>212</v>
+      </c>
+      <c r="E42" t="s">
+        <v>116</v>
+      </c>
+      <c r="F42">
+        <v>10.64</v>
+      </c>
+      <c r="G42" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43">
+        <v>82</v>
+      </c>
+      <c r="D43">
         <v>214</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" t="s">
         <v>118</v>
       </c>
-      <c r="F42">
+      <c r="F43">
         <v>26.8</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" t="s">
         <v>67</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43">
-        <v>83</v>
-      </c>
-      <c r="D43">
-        <v>207</v>
-      </c>
-      <c r="E43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F43">
-        <v>37.99</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>120</v>
@@ -3047,24 +3032,24 @@
         <v>83</v>
       </c>
       <c r="D44">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F44">
-        <v>129.6</v>
+        <v>37.99</v>
       </c>
       <c r="G44" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="H44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>120</v>
@@ -3073,76 +3058,76 @@
         <v>83</v>
       </c>
       <c r="D45">
+        <v>211</v>
+      </c>
+      <c r="E45" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45">
+        <v>129.6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>61</v>
+      </c>
+      <c r="H45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46">
+        <v>83</v>
+      </c>
+      <c r="D46">
         <v>214</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" t="s">
         <v>125</v>
       </c>
-      <c r="F45">
+      <c r="F46">
         <v>19.899999999999999</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" t="s">
         <v>67</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>127</v>
       </c>
-      <c r="C46">
+      <c r="C47">
         <v>84</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>210</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>128</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>138.4</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>16</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C47">
-        <v>86</v>
-      </c>
-      <c r="D47">
-        <v>220</v>
-      </c>
-      <c r="E47" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47">
-        <v>55.6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>61</v>
-      </c>
-      <c r="H47" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>130</v>
@@ -3151,50 +3136,50 @@
         <v>86</v>
       </c>
       <c r="D48">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48">
+        <v>55.6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>61</v>
+      </c>
+      <c r="H48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49">
+        <v>86</v>
+      </c>
+      <c r="D49">
         <v>222</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" t="s">
         <v>133</v>
       </c>
-      <c r="F48">
+      <c r="F49">
         <v>3.83</v>
-      </c>
-      <c r="G48" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>135</v>
-      </c>
-      <c r="C49">
-        <v>88</v>
-      </c>
-      <c r="D49">
-        <v>223</v>
-      </c>
-      <c r="E49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49">
-        <v>11.43</v>
       </c>
       <c r="G49" t="s">
         <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>135</v>
@@ -3203,24 +3188,24 @@
         <v>88</v>
       </c>
       <c r="D50">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F50">
-        <v>3.66</v>
+        <v>11.43</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>135</v>
@@ -3229,24 +3214,24 @@
         <v>88</v>
       </c>
       <c r="D51">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E51" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F51">
-        <v>14.8</v>
+        <v>3.66</v>
       </c>
       <c r="G51" t="s">
         <v>16</v>
       </c>
       <c r="H51" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>135</v>
@@ -3255,24 +3240,24 @@
         <v>88</v>
       </c>
       <c r="D52">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E52" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F52">
-        <v>1599</v>
+        <v>14.8</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>135</v>
@@ -3281,76 +3266,76 @@
         <v>88</v>
       </c>
       <c r="D53">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E53" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F53">
-        <v>5.77</v>
+        <v>1599</v>
       </c>
       <c r="G53" t="s">
         <v>12</v>
       </c>
       <c r="H53" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C54">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D54">
         <v>228</v>
       </c>
       <c r="E54" t="s">
+        <v>144</v>
+      </c>
+      <c r="F54">
+        <v>5.77</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55">
+        <v>89</v>
+      </c>
+      <c r="D55">
+        <v>228</v>
+      </c>
+      <c r="E55" t="s">
         <v>147</v>
       </c>
-      <c r="F54">
+      <c r="F55">
         <v>6.13</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G55" t="s">
         <v>88</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55">
-        <v>90</v>
-      </c>
-      <c r="D55">
-        <v>227</v>
-      </c>
-      <c r="E55" t="s">
-        <v>150</v>
-      </c>
-      <c r="F55">
-        <v>18.5</v>
-      </c>
-      <c r="G55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>57</v>
       </c>
       <c r="B56" t="s">
         <v>149</v>
@@ -3359,24 +3344,24 @@
         <v>90</v>
       </c>
       <c r="D56">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F56">
-        <v>1.91</v>
+        <v>18.5</v>
       </c>
       <c r="G56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>149</v>
@@ -3385,24 +3370,24 @@
         <v>90</v>
       </c>
       <c r="D57">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F57">
-        <v>14050000000</v>
+        <v>1.91</v>
       </c>
       <c r="G57" t="s">
         <v>12</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
         <v>149</v>
@@ -3411,76 +3396,76 @@
         <v>90</v>
       </c>
       <c r="D58">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F58">
-        <v>24.1</v>
+        <v>14050000000</v>
       </c>
       <c r="G58" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C59">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59">
         <v>234</v>
       </c>
       <c r="E59" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F59">
-        <v>6.75</v>
+        <v>24.1</v>
       </c>
       <c r="G59" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="H59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C60">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D60">
         <v>234</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F60">
-        <v>24540</v>
+        <v>6.75</v>
       </c>
       <c r="G60" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
         <v>161</v>
@@ -3489,24 +3474,24 @@
         <v>92</v>
       </c>
       <c r="D61">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F61">
-        <v>710000000</v>
+        <v>24540</v>
       </c>
       <c r="G61" t="s">
         <v>12</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>161</v>
@@ -3515,50 +3500,50 @@
         <v>92</v>
       </c>
       <c r="D62">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F62">
-        <v>4468000000</v>
+        <v>710000000</v>
       </c>
       <c r="G62" t="s">
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C63">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D63">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F63">
-        <v>2140000</v>
+        <v>4468000000</v>
       </c>
       <c r="G63" t="s">
         <v>12</v>
       </c>
       <c r="H63" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>168</v>
@@ -3567,50 +3552,50 @@
         <v>93</v>
       </c>
       <c r="D64">
+        <v>237</v>
+      </c>
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
+      <c r="F64">
+        <v>2140000</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65">
+        <v>93</v>
+      </c>
+      <c r="D65">
         <v>239</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E65" t="s">
         <v>171</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <v>2.36</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G65" t="s">
         <v>16</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H65" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>67</v>
-      </c>
-      <c r="B65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65">
-        <v>94</v>
-      </c>
-      <c r="D65">
-        <v>238</v>
-      </c>
-      <c r="E65" t="s">
-        <v>174</v>
-      </c>
-      <c r="F65">
-        <v>86.4</v>
-      </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>68</v>
       </c>
       <c r="B66" t="s">
         <v>173</v>
@@ -3619,24 +3604,24 @@
         <v>94</v>
       </c>
       <c r="D66">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F66">
-        <v>24120</v>
+        <v>86.4</v>
       </c>
       <c r="G66" t="s">
         <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>173</v>
@@ -3645,24 +3630,24 @@
         <v>94</v>
       </c>
       <c r="D67">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F67">
-        <v>6550</v>
+        <v>24120</v>
       </c>
       <c r="G67" t="s">
         <v>12</v>
       </c>
       <c r="H67" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
         <v>173</v>
@@ -3671,50 +3656,50 @@
         <v>94</v>
       </c>
       <c r="D68">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F68">
-        <v>14.4</v>
+        <v>6550</v>
       </c>
       <c r="G68" t="s">
         <v>12</v>
       </c>
       <c r="H68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69">
+        <v>94</v>
+      </c>
+      <c r="D69">
+        <v>241</v>
+      </c>
+      <c r="E69" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69">
+        <v>14.4</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>71</v>
-      </c>
-      <c r="B69" t="s">
-        <v>182</v>
-      </c>
-      <c r="C69">
-        <v>95</v>
-      </c>
-      <c r="D69">
-        <v>240</v>
-      </c>
-      <c r="E69" t="s">
-        <v>183</v>
-      </c>
-      <c r="F69">
-        <v>50.8</v>
-      </c>
-      <c r="G69" t="s">
-        <v>88</v>
-      </c>
-      <c r="H69" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>72</v>
       </c>
       <c r="B70" t="s">
         <v>182</v>
@@ -3723,50 +3708,50 @@
         <v>95</v>
       </c>
       <c r="D70">
+        <v>240</v>
+      </c>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70">
+        <v>50.8</v>
+      </c>
+      <c r="G70" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71">
+        <v>95</v>
+      </c>
+      <c r="D71">
         <v>241</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E71" t="s">
         <v>185</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <v>433</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G71" t="s">
         <v>12</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H71" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>73</v>
-      </c>
-      <c r="B71" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71">
-        <v>96</v>
-      </c>
-      <c r="D71">
-        <v>242</v>
-      </c>
-      <c r="E71" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71">
-        <v>162.9</v>
-      </c>
-      <c r="G71" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>187</v>
@@ -3775,24 +3760,24 @@
         <v>96</v>
       </c>
       <c r="D72">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F72">
-        <v>28.5</v>
+        <v>162.9</v>
       </c>
       <c r="G72" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>187</v>
@@ -3801,62 +3786,62 @@
         <v>96</v>
       </c>
       <c r="D73">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F73">
-        <v>18.11</v>
+        <v>28.5</v>
       </c>
       <c r="G73" t="s">
         <v>12</v>
       </c>
       <c r="H73" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74">
+        <v>96</v>
+      </c>
+      <c r="D74">
+        <v>244</v>
+      </c>
+      <c r="E74" t="s">
+        <v>192</v>
+      </c>
+      <c r="F74">
+        <v>18.11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
-      <c r="A74">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>76</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>194</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>55</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>134</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>195</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74" t="s">
-        <v>9</v>
-      </c>
-      <c r="H74" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75">
-        <v>77</v>
-      </c>
-      <c r="B75" t="s">
-        <v>197</v>
-      </c>
-      <c r="C75">
-        <v>94</v>
-      </c>
-      <c r="D75">
-        <v>239</v>
-      </c>
-      <c r="E75" t="s">
-        <v>198</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -3865,15 +3850,15 @@
         <v>9</v>
       </c>
       <c r="H75" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C76">
         <v>94</v>
@@ -3882,7 +3867,7 @@
         <v>239</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -3891,12 +3876,12 @@
         <v>9</v>
       </c>
       <c r="H76" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
         <v>200</v>
@@ -3908,7 +3893,7 @@
         <v>239</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3917,24 +3902,24 @@
         <v>9</v>
       </c>
       <c r="H77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C78">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D78">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3943,24 +3928,24 @@
         <v>9</v>
       </c>
       <c r="H78" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C79">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D79">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="E79" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3969,24 +3954,24 @@
         <v>9</v>
       </c>
       <c r="H79" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C80">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D80">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3995,24 +3980,24 @@
         <v>9</v>
       </c>
       <c r="H80" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C81">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="D81">
-        <v>137</v>
+        <v>241</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -4021,246 +4006,246 @@
         <v>9</v>
       </c>
       <c r="H81" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>214</v>
+      </c>
+      <c r="C82">
+        <v>55</v>
+      </c>
+      <c r="D82">
+        <v>137</v>
+      </c>
+      <c r="E82" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+      <c r="H82" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
-      <c r="A82">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>84</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>216</v>
       </c>
-      <c r="C82">
+      <c r="C83">
         <v>48</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>109</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>217</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <v>462.6</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>16</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>85</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>108</v>
       </c>
-      <c r="C83">
+      <c r="C84">
         <v>63</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>152</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>219</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <v>13.537000000000001</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G84" t="s">
         <v>12</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H84" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
-      <c r="A84">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>86</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>221</v>
       </c>
-      <c r="C84">
+      <c r="C85">
         <v>26</v>
       </c>
-      <c r="D84">
+      <c r="D85">
         <v>59</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E85" t="s">
         <v>222</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <v>44.503</v>
-      </c>
-      <c r="G84" t="s">
-        <v>16</v>
-      </c>
-      <c r="H84" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
-        <v>87</v>
-      </c>
-      <c r="B85" t="s">
-        <v>224</v>
-      </c>
-      <c r="C85">
-        <v>64</v>
-      </c>
-      <c r="D85">
-        <v>153</v>
-      </c>
-      <c r="E85" t="s">
-        <v>225</v>
-      </c>
-      <c r="F85">
-        <v>240.4</v>
       </c>
       <c r="G85" t="s">
         <v>16</v>
       </c>
       <c r="H85" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C86">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D86">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F86">
-        <v>73.831000000000003</v>
+        <v>240.4</v>
       </c>
       <c r="G86" t="s">
         <v>16</v>
       </c>
       <c r="H86" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87">
+        <v>77</v>
+      </c>
+      <c r="D87">
+        <v>192</v>
+      </c>
+      <c r="E87" t="s">
+        <v>228</v>
+      </c>
+      <c r="F87">
+        <v>73.831000000000003</v>
+      </c>
+      <c r="G87" t="s">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>89</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>173</v>
       </c>
-      <c r="C87">
+      <c r="C88">
         <v>94</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>238</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E88" t="s">
         <v>230</v>
       </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
         <v>9</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H88" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>90</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>232</v>
       </c>
-      <c r="C88">
+      <c r="C89">
         <v>37</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>86</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E89" t="s">
         <v>233</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <v>18.631</v>
-      </c>
-      <c r="G88" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>235</v>
-      </c>
-      <c r="C89">
-        <v>21</v>
-      </c>
-      <c r="D89">
-        <v>46</v>
-      </c>
-      <c r="E89" t="s">
-        <v>236</v>
-      </c>
-      <c r="F89">
-        <v>83.79</v>
       </c>
       <c r="G89" t="s">
         <v>16</v>
       </c>
       <c r="H89" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C90">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D90">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="E90" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F90">
-        <v>115.09</v>
+        <v>83.79</v>
       </c>
       <c r="G90" t="s">
         <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>238</v>
@@ -4269,88 +4254,88 @@
         <v>50</v>
       </c>
       <c r="D91">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E91" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F91">
-        <v>13.6</v>
+        <v>115.09</v>
       </c>
       <c r="G91" t="s">
         <v>16</v>
       </c>
       <c r="H91" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>238</v>
+      </c>
+      <c r="C92">
+        <v>50</v>
+      </c>
+      <c r="D92">
+        <v>117</v>
+      </c>
+      <c r="E92" t="s">
+        <v>241</v>
+      </c>
+      <c r="F92">
+        <v>13.6</v>
+      </c>
+      <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>94</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>243</v>
       </c>
-      <c r="C92">
+      <c r="C93">
         <v>81</v>
       </c>
-      <c r="D92">
+      <c r="D93">
         <v>208</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E93" t="s">
         <v>244</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <v>3.0529999999999999</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G93" t="s">
         <v>67</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H93" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>95</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>246</v>
       </c>
-      <c r="C93">
+      <c r="C94">
         <v>42</v>
-      </c>
-      <c r="D93">
-        <v>99</v>
-      </c>
-      <c r="E93" t="s">
-        <v>247</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93" t="s">
-        <v>9</v>
-      </c>
-      <c r="H93" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94">
-        <v>96</v>
-      </c>
-      <c r="B94" t="s">
-        <v>51</v>
-      </c>
-      <c r="C94">
-        <v>43</v>
       </c>
       <c r="D94">
         <v>99</v>
       </c>
       <c r="E94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -4359,24 +4344,24 @@
         <v>9</v>
       </c>
       <c r="H94" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C95">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -4385,24 +4370,24 @@
         <v>9</v>
       </c>
       <c r="H95" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="C96">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D96">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E96" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4411,12 +4396,12 @@
         <v>9</v>
       </c>
       <c r="H96" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>253</v>
@@ -4425,10 +4410,10 @@
         <v>52</v>
       </c>
       <c r="D97">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F97">
         <v>0</v>
@@ -4437,24 +4422,24 @@
         <v>9</v>
       </c>
       <c r="H97" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="C98">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D98">
         <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4463,12 +4448,12 @@
         <v>9</v>
       </c>
       <c r="H98" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>81</v>
@@ -4477,10 +4462,10 @@
         <v>53</v>
       </c>
       <c r="D99">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E99" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4489,24 +4474,24 @@
         <v>9</v>
       </c>
       <c r="H99" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C100">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D100">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E100" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -4515,24 +4500,24 @@
         <v>9</v>
       </c>
       <c r="H100" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>264</v>
+        <v>86</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D101">
-        <v>999</v>
+        <v>136</v>
       </c>
       <c r="E101" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -4541,15 +4526,15 @@
         <v>9</v>
       </c>
       <c r="H101" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -4558,7 +4543,7 @@
         <v>999</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4567,24 +4552,24 @@
         <v>9</v>
       </c>
       <c r="H102" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="C103">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>133</v>
+        <v>999</v>
       </c>
       <c r="E103" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -4593,24 +4578,24 @@
         <v>9</v>
       </c>
       <c r="H103" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="C104">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="D104">
-        <v>230</v>
+        <v>133</v>
       </c>
       <c r="E104" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4619,24 +4604,24 @@
         <v>9</v>
       </c>
       <c r="H104" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C105">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D105">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4645,24 +4630,24 @@
         <v>9</v>
       </c>
       <c r="H105" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C106">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D106">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E106" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -4671,24 +4656,24 @@
         <v>9</v>
       </c>
       <c r="H106" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="C107">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D107">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -4697,24 +4682,24 @@
         <v>9</v>
       </c>
       <c r="H107" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
-        <v>280</v>
+        <v>63</v>
       </c>
       <c r="C108">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D108">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -4723,24 +4708,24 @@
         <v>9</v>
       </c>
       <c r="H108" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>280</v>
       </c>
       <c r="C109">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D109">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E109" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -4749,24 +4734,24 @@
         <v>9</v>
       </c>
       <c r="H109" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C110">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D110">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E110" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -4775,24 +4760,24 @@
         <v>9</v>
       </c>
       <c r="H110" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C111">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D111">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E111" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -4801,24 +4786,24 @@
         <v>9</v>
       </c>
       <c r="H111" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C112">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D112">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4827,24 +4812,24 @@
         <v>9</v>
       </c>
       <c r="H112" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="C113">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D113">
-        <v>201</v>
+        <v>139</v>
       </c>
       <c r="E113" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -4853,24 +4838,24 @@
         <v>9</v>
       </c>
       <c r="H113" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B114" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
       <c r="C114">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D114">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E114" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4879,24 +4864,24 @@
         <v>9</v>
       </c>
       <c r="H114" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B115" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C115">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="D115">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="E115" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -4905,24 +4890,24 @@
         <v>9</v>
       </c>
       <c r="H115" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="C116">
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="D116">
-        <v>234</v>
+        <v>22</v>
       </c>
       <c r="E116" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4931,24 +4916,24 @@
         <v>9</v>
       </c>
       <c r="H116" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C117">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D117">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E117" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4957,24 +4942,24 @@
         <v>9</v>
       </c>
       <c r="H117" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="C118">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="D118">
-        <v>75</v>
+        <v>243</v>
       </c>
       <c r="E118" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -4983,24 +4968,24 @@
         <v>9</v>
       </c>
       <c r="H118" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="C119">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D119">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E119" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -5009,24 +4994,24 @@
         <v>9</v>
       </c>
       <c r="H119" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B120" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="C120">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D120">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E120" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F120">
         <v>0</v>
@@ -5035,24 +5020,24 @@
         <v>9</v>
       </c>
       <c r="H120" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B121" t="s">
-        <v>100</v>
+        <v>308</v>
       </c>
       <c r="C121">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D121">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="E121" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F121">
         <v>0</v>
@@ -5061,24 +5046,24 @@
         <v>9</v>
       </c>
       <c r="H121" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C122">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="D122">
-        <v>212</v>
+        <v>140</v>
       </c>
       <c r="E122" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -5087,24 +5072,24 @@
         <v>9</v>
       </c>
       <c r="H122" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B123" t="s">
-        <v>315</v>
+        <v>120</v>
       </c>
       <c r="C123">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D123">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E123" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -5113,24 +5098,24 @@
         <v>9</v>
       </c>
       <c r="H123" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>315</v>
       </c>
       <c r="C124">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="D124">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="E124" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F124">
         <v>0</v>
@@ -5139,24 +5124,24 @@
         <v>9</v>
       </c>
       <c r="H124" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B125" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C125">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D125">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -5165,24 +5150,24 @@
         <v>9</v>
       </c>
       <c r="H125" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B126" t="s">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="C126">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="D126">
-        <v>232</v>
+        <v>137</v>
       </c>
       <c r="E126" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -5191,24 +5176,24 @@
         <v>9</v>
       </c>
       <c r="H126" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B127" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C127">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D127">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -5217,24 +5202,24 @@
         <v>9</v>
       </c>
       <c r="H127" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B128" t="s">
-        <v>325</v>
+        <v>158</v>
       </c>
       <c r="C128">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="D128">
-        <v>106</v>
+        <v>233</v>
       </c>
       <c r="E128" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -5243,24 +5228,24 @@
         <v>9</v>
       </c>
       <c r="H128" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B129" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C129">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D129">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c r="E129" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -5269,24 +5254,24 @@
         <v>9</v>
       </c>
       <c r="H129" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B130" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D130">
-        <v>999</v>
+        <v>232</v>
       </c>
       <c r="E130" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -5295,76 +5280,76 @@
         <v>9</v>
       </c>
       <c r="H130" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>138</v>
+      </c>
+      <c r="B131" t="s">
+        <v>331</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>999</v>
+      </c>
+      <c r="E131" t="s">
+        <v>332</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+      <c r="H131" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
-      <c r="A131">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132">
         <v>139</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>221</v>
       </c>
-      <c r="C131">
+      <c r="C132">
         <v>26</v>
       </c>
-      <c r="D131">
+      <c r="D132">
         <v>55</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E132" t="s">
         <v>334</v>
       </c>
-      <c r="F131">
+      <c r="F132">
         <v>2.7370000000000001</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G132" t="s">
         <v>12</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H132" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
-      <c r="A132">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133">
         <v>140</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>336</v>
       </c>
-      <c r="C132">
+      <c r="C133">
         <v>58</v>
       </c>
-      <c r="D132">
+      <c r="D133">
         <v>144</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>337</v>
-      </c>
-      <c r="F132">
-        <v>0</v>
-      </c>
-      <c r="G132" t="s">
-        <v>9</v>
-      </c>
-      <c r="H132" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133">
-        <v>141</v>
-      </c>
-      <c r="B133" t="s">
-        <v>208</v>
-      </c>
-      <c r="C133">
-        <v>94</v>
-      </c>
-      <c r="D133">
-        <v>240</v>
-      </c>
-      <c r="E133" t="s">
-        <v>339</v>
       </c>
       <c r="F133">
         <v>0</v>
@@ -5373,12 +5358,12 @@
         <v>9</v>
       </c>
       <c r="H133" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B134" t="s">
         <v>208</v>
@@ -5387,10 +5372,10 @@
         <v>94</v>
       </c>
       <c r="D134">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F134">
         <v>0</v>
@@ -5399,22 +5384,42 @@
         <v>9</v>
       </c>
       <c r="H134" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>142</v>
+      </c>
+      <c r="B135" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135">
+        <v>94</v>
+      </c>
+      <c r="D135">
+        <v>241</v>
+      </c>
+      <c r="E135" t="s">
+        <v>341</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
+      </c>
+      <c r="H135" t="s">
         <v>342</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G133" xr:uid="{522E3BCD-F718-4356-AF3C-E54F6A196BA1}"/>
+  <autoFilter ref="A1:G134" xr:uid="{522E3BCD-F718-4356-AF3C-E54F6A196BA1}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -5546,6 +5551,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5556,13 +5567,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/nbs/files/lut/dbo_nuclide.xlsx
+++ b/nbs/files/lut/dbo_nuclide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022C668B-9828-3B4A-A76A-9827B92B0960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F32A8-DF8E-6D48-9627-D5D6E4AC4581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1067,7 +1067,7 @@
     <t>pu241_pu239_ratio</t>
   </si>
   <si>
-    <t>Not applicable</t>
+    <t>NOT APPLICABLE</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5420,6 +5420,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -5551,12 +5557,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -5567,6 +5567,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5584,15 +5593,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}">
   <ds:schemaRefs>

--- a/nbs/files/lut/dbo_nuclide.xlsx
+++ b/nbs/files/lut/dbo_nuclide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{768F32A8-DF8E-6D48-9627-D5D6E4AC4581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC2936B-45DF-8241-A208-44D9C11D6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="344">
   <si>
     <t>nuclide_id</t>
   </si>
@@ -1910,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1957,6 +1957,9 @@
       <c r="B2" t="s">
         <v>343</v>
       </c>
+      <c r="H2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -1979,6 +1982,9 @@
       </c>
       <c r="G3" t="s">
         <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -5426,6 +5432,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -5557,15 +5572,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}">
   <ds:schemaRefs>
@@ -5576,6 +5582,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5591,12 +5605,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/nbs/files/lut/dbo_nuclide.xlsx
+++ b/nbs/files/lut/dbo_nuclide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC2936B-45DF-8241-A208-44D9C11D6D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D05C5FE-BF49-BE40-BB14-6C6291456200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10840" yWindow="500" windowWidth="17960" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020-05-14 dbo_nuclide" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="349">
   <si>
     <t>nuclide_id</t>
   </si>
@@ -1061,13 +1061,28 @@
     <t>pu240_pu239_ratio</t>
   </si>
   <si>
-    <t>241Pu/239Pu</t>
-  </si>
-  <si>
-    <t>pu241_pu239_ratio</t>
-  </si>
-  <si>
     <t>NOT APPLICABLE</t>
+  </si>
+  <si>
+    <t>ACTINIIUM</t>
+  </si>
+  <si>
+    <t>U-233</t>
+  </si>
+  <si>
+    <t>u233</t>
+  </si>
+  <si>
+    <t>Pu-239,242</t>
+  </si>
+  <si>
+    <t>pu239_242_tot</t>
+  </si>
+  <si>
+    <t>Ac-227</t>
+  </si>
+  <si>
+    <t>ac227</t>
   </si>
 </sst>
 </file>
@@ -1908,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1919,6 +1934,7 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" bestFit="1" customWidth="1"/>
@@ -1955,10 +1971,10 @@
         <v>-1</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5398,25 +5414,77 @@
         <v>142</v>
       </c>
       <c r="B135" t="s">
-        <v>208</v>
+        <v>161</v>
       </c>
       <c r="C135">
+        <v>92</v>
+      </c>
+      <c r="D135">
+        <v>233</v>
+      </c>
+      <c r="E135" t="s">
+        <v>343</v>
+      </c>
+      <c r="F135">
+        <v>5021000000000</v>
+      </c>
+      <c r="G135" t="s">
+        <v>61</v>
+      </c>
+      <c r="H135" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>143</v>
+      </c>
+      <c r="B136" t="s">
+        <v>197</v>
+      </c>
+      <c r="C136">
         <v>94</v>
       </c>
-      <c r="D135">
-        <v>241</v>
-      </c>
-      <c r="E135" t="s">
-        <v>341</v>
-      </c>
-      <c r="F135">
-        <v>0</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="D136">
+        <v>239</v>
+      </c>
+      <c r="E136" t="s">
+        <v>345</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
         <v>9</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H136" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>144</v>
+      </c>
+      <c r="B137" t="s">
         <v>342</v>
+      </c>
+      <c r="C137">
+        <v>89</v>
+      </c>
+      <c r="D137">
+        <v>227</v>
+      </c>
+      <c r="E137" t="s">
+        <v>347</v>
+      </c>
+      <c r="F137">
+        <v>21.771999999999998</v>
+      </c>
+      <c r="G137" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5426,21 +5494,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006C266C02A97D1D41B60FC5BB4AB3B561" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="627c5da731661f4bf76604184727f2d6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f3c01d95-e195-4940-9fb4-afa395d98e0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bf665a11c7ceb3b31f5a9dbdfc3fcda" ns2:_="">
     <xsd:import namespace="f3c01d95-e195-4940-9fb4-afa395d98e0b"/>
@@ -5572,24 +5625,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E33F4B43-F626-4BCA-B49E-D17CB2B809C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5605,4 +5656,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C0E32B0-2BF7-4F1D-96E1-B5E1D973E33F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAE12FE-F927-4AED-AF5B-6EFB75744B94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>